--- a/Assignments/Midterm-Exam/Video Game Controllers.xlsx
+++ b/Assignments/Midterm-Exam/Video Game Controllers.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>5.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>5.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
